--- a/src/main/java/com/dotcom/keyword/scenarios/Residential_Scenarios.xlsx
+++ b/src/main/java/com/dotcom/keyword/scenarios/Residential_Scenarios.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="885" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ResMasterSheet" sheetId="2" r:id="rId1"/>
     <sheet name="Res objectRepository" sheetId="3" r:id="rId2"/>
     <sheet name="ResLinks" sheetId="4" r:id="rId3"/>
     <sheet name="Primary Links" sheetId="12" r:id="rId4"/>
-    <sheet name="Primary Links validation" sheetId="5" r:id="rId5"/>
-    <sheet name="Microsite UQual" sheetId="6" r:id="rId6"/>
-    <sheet name="UQual" sheetId="7" r:id="rId7"/>
-    <sheet name="ResHeaderLinks" sheetId="8" r:id="rId8"/>
-    <sheet name="FooterLinks" sheetId="9" r:id="rId9"/>
-    <sheet name="MyWinMenuValidation" sheetId="10" r:id="rId10"/>
-    <sheet name="Search" sheetId="11" r:id="rId11"/>
+    <sheet name="LiveChatRES" sheetId="13" r:id="rId5"/>
+    <sheet name="Primary Links validation" sheetId="5" r:id="rId6"/>
+    <sheet name="Microsite UQual" sheetId="6" r:id="rId7"/>
+    <sheet name="UQual" sheetId="7" r:id="rId8"/>
+    <sheet name="ResHeaderLinks" sheetId="8" r:id="rId9"/>
+    <sheet name="FooterLinks" sheetId="9" r:id="rId10"/>
+    <sheet name="MyWinMenuValidation" sheetId="10" r:id="rId11"/>
+    <sheet name="Search" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="255">
   <si>
     <t>S.no</t>
   </si>
@@ -750,13 +751,53 @@
   </si>
   <si>
     <t>Page URL status</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>GREYBAR-NB</t>
+  </si>
+  <si>
+    <t>GREYBAR-BUS</t>
+  </si>
+  <si>
+    <t>ChatButton</t>
+  </si>
+  <si>
+    <t>NAV to contact-us</t>
+  </si>
+  <si>
+    <t>NON-BUS Text</t>
+  </si>
+  <si>
+    <t>NAV to chat window</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>https://www.windstream.com/kinetic-tv</t>
+  </si>
+  <si>
+    <t>https://www.windstream.com/seo/products</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +893,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,8 +921,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -968,12 +1023,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,6 +1170,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1413,10 +1493,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.6328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.6328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1538,6 +1618,156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="41.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.windstream.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1547,10 +1777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.54296875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.26953125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1656,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1666,10 +1896,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="53.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1827,8 +2057,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.36328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2055,9 +2285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.54296875" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7265625" style="11" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="11" width="26.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="11" width="81.54296875" collapsed="true"/>
+    <col min="3" max="16384" style="11" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2380,15 +2610,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="81.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2420,8 +2650,12 @@
       <c r="B3" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -2430,8 +2664,12 @@
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -2440,8 +2678,12 @@
       <c r="B5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -2450,8 +2692,12 @@
       <c r="B6" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -2460,8 +2706,12 @@
       <c r="B7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -2863,18 +3113,107 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="54.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.08984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3540,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3550,10 +3889,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3772,7 +4111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3782,10 +4121,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="62.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="62.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4046,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -4056,9 +4395,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.6328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4171,156 +4510,6 @@
       </c>
       <c r="D8" s="13" t="s">
         <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.windstream.com/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.7265625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
